--- a/downloaded_files/MEES481_Lecture-35710.xlsx
+++ b/downloaded_files/MEES481_Lecture-35710.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -42,15 +42,6 @@
     <x:t>ِAhmed Khaled Abd Al-hady Ibrahim</x:t>
   </x:si>
   <x:si>
-    <x:t>1210180</x:t>
-  </x:si>
-  <x:si>
-    <x:t>أحمد مروان كامل عبد العزيز محمد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ahmed Marwan Kamel Abd Alaziz</x:t>
-  </x:si>
-  <x:si>
     <x:t>1210182</x:t>
   </x:si>
   <x:si>
@@ -69,24 +60,6 @@
     <x:t>Ahmed Mostafa Elsayed Ahmed</x:t>
   </x:si>
   <x:si>
-    <x:t>1210132</x:t>
-  </x:si>
-  <x:si>
-    <x:t>بيشوى كمال برسوم كمال ابو غالى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bishoy Kamal Barsoum Kamal</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210214</x:t>
-  </x:si>
-  <x:si>
-    <x:t>حازم محمد عبد السلام لطفي</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hazem mohamed abdelsalam lotfy</x:t>
-  </x:si>
-  <x:si>
     <x:t>1210099</x:t>
   </x:si>
   <x:si>
@@ -105,6 +78,15 @@
     <x:t>Rana Atef saad arafa</x:t>
   </x:si>
   <x:si>
+    <x:t>1210223</x:t>
+  </x:si>
+  <x:si>
+    <x:t>روان محمد سموءل رزق سالم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rawan Mohamed Samawal Rezk</x:t>
+  </x:si>
+  <x:si>
     <x:t>1210232</x:t>
   </x:si>
   <x:si>
@@ -150,15 +132,6 @@
     <x:t>Abdel Rahman Mahmoud</x:t>
   </x:si>
   <x:si>
-    <x:t>1210251</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عبدالرحمن وائل عبدالرازق السيد موافى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Abdelrahman wael abdelrazek el seid</x:t>
-  </x:si>
-  <x:si>
     <x:t>1210063</x:t>
   </x:si>
   <x:si>
@@ -195,15 +168,6 @@
     <x:t>Mohamed Sabry Hassan Mohamed</x:t>
   </x:si>
   <x:si>
-    <x:t>1210290</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمد عمرو هاني حسين سيد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mohamed amr hany hussein sayed</x:t>
-  </x:si>
-  <x:si>
     <x:t>1200264</x:t>
   </x:si>
   <x:si>
@@ -211,15 +175,6 @@
   </x:si>
   <x:si>
     <x:t>Mahmoud Khaled Mohamed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210083</x:t>
-  </x:si>
-  <x:si>
-    <x:t>مصطفى هانى عبد الفتاح محمود العطار</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mostafa Hany Abdelfattah</x:t>
   </x:si>
   <x:si>
     <x:t>1210311</x:t>
@@ -362,7 +317,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E25" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E20" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -662,7 +617,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T25"/>
+  <x:dimension ref="A1:T20"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -785,7 +740,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45906.6649607986</x:v>
+        <x:v>45906.4147820602</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -817,7 +772,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45906.4147820602</x:v>
+        <x:v>45906.6649310995</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -849,7 +804,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45906.6649310995</x:v>
+        <x:v>45906.6646397338</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -881,7 +836,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45906.6656665856</x:v>
+        <x:v>45906.6648852199</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -913,7 +868,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45906.6652719907</x:v>
+        <x:v>45927.4163445255</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -945,7 +900,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45906.6646397338</x:v>
+        <x:v>45906.6651360764</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -977,7 +932,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45906.6648852199</x:v>
+        <x:v>45906.6646386574</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1009,7 +964,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45906.6651360764</x:v>
+        <x:v>45906.6650502315</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1041,7 +996,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.6646386574</x:v>
+        <x:v>45906.6775083333</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1073,7 +1028,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45906.6650502315</x:v>
+        <x:v>45906.4145265046</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1105,7 +1060,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.6775083333</x:v>
+        <x:v>45906.6653118866</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1137,7 +1092,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.4145265046</x:v>
+        <x:v>45906.6645260069</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1169,7 +1124,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.6650795139</x:v>
+        <x:v>45906.4151256944</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1201,7 +1156,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.6653118866</x:v>
+        <x:v>45906.6660945602</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1233,7 +1188,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.6645260069</x:v>
+        <x:v>45906.6649344907</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1265,7 +1220,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.4151256944</x:v>
+        <x:v>45906.6729691319</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1297,7 +1252,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.6660945602</x:v>
+        <x:v>45906.6645776968</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1329,7 +1284,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.6676064468</x:v>
+        <x:v>45906.4148245023</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1346,166 +1301,6 @@
       <x:c r="R20" s="2" t="s"/>
       <x:c r="S20" s="2" t="s"/>
       <x:c r="T20" s="2" t="s"/>
-    </x:row>
-    <x:row r="21" spans="1:20">
-      <x:c r="A21" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B21" s="2" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="C21" s="2" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="D21" s="2" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="E21" s="3">
-        <x:v>45906.6649344907</x:v>
-      </x:c>
-      <x:c r="F21" s="2" t="s"/>
-      <x:c r="G21" s="2" t="s"/>
-      <x:c r="H21" s="2" t="s"/>
-      <x:c r="I21" s="2" t="s"/>
-      <x:c r="J21" s="2" t="s"/>
-      <x:c r="K21" s="2" t="s"/>
-      <x:c r="L21" s="2" t="s"/>
-      <x:c r="M21" s="2" t="s"/>
-      <x:c r="N21" s="2" t="s"/>
-      <x:c r="O21" s="2" t="s"/>
-      <x:c r="P21" s="2" t="s"/>
-      <x:c r="Q21" s="2" t="s"/>
-      <x:c r="R21" s="2" t="s"/>
-      <x:c r="S21" s="2" t="s"/>
-      <x:c r="T21" s="2" t="s"/>
-    </x:row>
-    <x:row r="22" spans="1:20">
-      <x:c r="A22" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B22" s="2" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="C22" s="2" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="D22" s="2" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="E22" s="3">
-        <x:v>45906.6647589468</x:v>
-      </x:c>
-      <x:c r="F22" s="2" t="s"/>
-      <x:c r="G22" s="2" t="s"/>
-      <x:c r="H22" s="2" t="s"/>
-      <x:c r="I22" s="2" t="s"/>
-      <x:c r="J22" s="2" t="s"/>
-      <x:c r="K22" s="2" t="s"/>
-      <x:c r="L22" s="2" t="s"/>
-      <x:c r="M22" s="2" t="s"/>
-      <x:c r="N22" s="2" t="s"/>
-      <x:c r="O22" s="2" t="s"/>
-      <x:c r="P22" s="2" t="s"/>
-      <x:c r="Q22" s="2" t="s"/>
-      <x:c r="R22" s="2" t="s"/>
-      <x:c r="S22" s="2" t="s"/>
-      <x:c r="T22" s="2" t="s"/>
-    </x:row>
-    <x:row r="23" spans="1:20">
-      <x:c r="A23" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B23" s="2" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="C23" s="2" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="D23" s="2" t="s">
-        <x:v>70</x:v>
-      </x:c>
-      <x:c r="E23" s="3">
-        <x:v>45906.6729691319</x:v>
-      </x:c>
-      <x:c r="F23" s="2" t="s"/>
-      <x:c r="G23" s="2" t="s"/>
-      <x:c r="H23" s="2" t="s"/>
-      <x:c r="I23" s="2" t="s"/>
-      <x:c r="J23" s="2" t="s"/>
-      <x:c r="K23" s="2" t="s"/>
-      <x:c r="L23" s="2" t="s"/>
-      <x:c r="M23" s="2" t="s"/>
-      <x:c r="N23" s="2" t="s"/>
-      <x:c r="O23" s="2" t="s"/>
-      <x:c r="P23" s="2" t="s"/>
-      <x:c r="Q23" s="2" t="s"/>
-      <x:c r="R23" s="2" t="s"/>
-      <x:c r="S23" s="2" t="s"/>
-      <x:c r="T23" s="2" t="s"/>
-    </x:row>
-    <x:row r="24" spans="1:20">
-      <x:c r="A24" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B24" s="2" t="s">
-        <x:v>71</x:v>
-      </x:c>
-      <x:c r="C24" s="2" t="s">
-        <x:v>72</x:v>
-      </x:c>
-      <x:c r="D24" s="2" t="s">
-        <x:v>73</x:v>
-      </x:c>
-      <x:c r="E24" s="3">
-        <x:v>45906.6645776968</x:v>
-      </x:c>
-      <x:c r="F24" s="2" t="s"/>
-      <x:c r="G24" s="2" t="s"/>
-      <x:c r="H24" s="2" t="s"/>
-      <x:c r="I24" s="2" t="s"/>
-      <x:c r="J24" s="2" t="s"/>
-      <x:c r="K24" s="2" t="s"/>
-      <x:c r="L24" s="2" t="s"/>
-      <x:c r="M24" s="2" t="s"/>
-      <x:c r="N24" s="2" t="s"/>
-      <x:c r="O24" s="2" t="s"/>
-      <x:c r="P24" s="2" t="s"/>
-      <x:c r="Q24" s="2" t="s"/>
-      <x:c r="R24" s="2" t="s"/>
-      <x:c r="S24" s="2" t="s"/>
-      <x:c r="T24" s="2" t="s"/>
-    </x:row>
-    <x:row r="25" spans="1:20">
-      <x:c r="A25" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B25" s="2" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="C25" s="2" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="D25" s="2" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="E25" s="3">
-        <x:v>45906.4148245023</x:v>
-      </x:c>
-      <x:c r="F25" s="2" t="s"/>
-      <x:c r="G25" s="2" t="s"/>
-      <x:c r="H25" s="2" t="s"/>
-      <x:c r="I25" s="2" t="s"/>
-      <x:c r="J25" s="2" t="s"/>
-      <x:c r="K25" s="2" t="s"/>
-      <x:c r="L25" s="2" t="s"/>
-      <x:c r="M25" s="2" t="s"/>
-      <x:c r="N25" s="2" t="s"/>
-      <x:c r="O25" s="2" t="s"/>
-      <x:c r="P25" s="2" t="s"/>
-      <x:c r="Q25" s="2" t="s"/>
-      <x:c r="R25" s="2" t="s"/>
-      <x:c r="S25" s="2" t="s"/>
-      <x:c r="T25" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MEES481_Lecture-35710.xlsx
+++ b/downloaded_files/MEES481_Lecture-35710.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -58,6 +58,15 @@
   </x:si>
   <x:si>
     <x:t>Ahmed Mostafa Elsayed Ahmed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210049</x:t>
+  </x:si>
+  <x:si>
+    <x:t>تقى محمد صلاح الدين محمد مدبولى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Toka Mohamed Salah El Dine Mohamed Madbouly</x:t>
   </x:si>
   <x:si>
     <x:t>1210099</x:t>
@@ -317,7 +326,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E20" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E21" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -617,7 +626,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T20"/>
+  <x:dimension ref="A1:T21"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -627,7 +636,7 @@
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="28.840625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="46.520625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="15.110625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -804,7 +813,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45906.6646397338</x:v>
+        <x:v>45927.9033905903</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -836,7 +845,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45906.6648852199</x:v>
+        <x:v>45906.6646397338</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -868,7 +877,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45927.4163445255</x:v>
+        <x:v>45906.6648852199</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -900,7 +909,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45906.6651360764</x:v>
+        <x:v>45927.4163445255</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -932,7 +941,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45906.6646386574</x:v>
+        <x:v>45906.6651360764</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -964,7 +973,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45906.6650502315</x:v>
+        <x:v>45906.6646386574</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -996,7 +1005,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.6775083333</x:v>
+        <x:v>45906.6650502315</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1028,7 +1037,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45906.4145265046</x:v>
+        <x:v>45906.6775083333</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1060,7 +1069,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.6653118866</x:v>
+        <x:v>45906.4145265046</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1092,7 +1101,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.6645260069</x:v>
+        <x:v>45906.6653118866</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1124,7 +1133,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.4151256944</x:v>
+        <x:v>45906.6645260069</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1156,7 +1165,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.6660945602</x:v>
+        <x:v>45906.4151256944</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1188,7 +1197,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.6649344907</x:v>
+        <x:v>45906.6660945602</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1220,7 +1229,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.6729691319</x:v>
+        <x:v>45906.6649344907</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1252,7 +1261,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.6645776968</x:v>
+        <x:v>45906.6729691319</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1284,7 +1293,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.4148245023</x:v>
+        <x:v>45906.6645776968</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1301,6 +1310,38 @@
       <x:c r="R20" s="2" t="s"/>
       <x:c r="S20" s="2" t="s"/>
       <x:c r="T20" s="2" t="s"/>
+    </x:row>
+    <x:row r="21" spans="1:20">
+      <x:c r="A21" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B21" s="2" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="C21" s="2" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="D21" s="2" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="E21" s="3">
+        <x:v>45906.4148245023</x:v>
+      </x:c>
+      <x:c r="F21" s="2" t="s"/>
+      <x:c r="G21" s="2" t="s"/>
+      <x:c r="H21" s="2" t="s"/>
+      <x:c r="I21" s="2" t="s"/>
+      <x:c r="J21" s="2" t="s"/>
+      <x:c r="K21" s="2" t="s"/>
+      <x:c r="L21" s="2" t="s"/>
+      <x:c r="M21" s="2" t="s"/>
+      <x:c r="N21" s="2" t="s"/>
+      <x:c r="O21" s="2" t="s"/>
+      <x:c r="P21" s="2" t="s"/>
+      <x:c r="Q21" s="2" t="s"/>
+      <x:c r="R21" s="2" t="s"/>
+      <x:c r="S21" s="2" t="s"/>
+      <x:c r="T21" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MEES481_Lecture-35710.xlsx
+++ b/downloaded_files/MEES481_Lecture-35710.xlsx
@@ -123,15 +123,6 @@
     <x:t>Abdelrahman Tamer Hanafy Mahmoud Mohamed</x:t>
   </x:si>
   <x:si>
-    <x:t>1210352</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عبدالرحمن خالد محمد محمود جادالله</x:t>
-  </x:si>
-  <x:si>
-    <x:t>abdulrhman khalid mohamed</x:t>
-  </x:si>
-  <x:si>
     <x:t>4220128</x:t>
   </x:si>
   <x:si>
@@ -193,6 +184,15 @@
   </x:si>
   <x:si>
     <x:t>malak yasser saad ahmed sallam</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210031</x:t>
+  </x:si>
+  <x:si>
+    <x:t>منة الله مدحت عبد الرازق على عثمان</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Menna Tullah Medhat Abdelrazik Aly</x:t>
   </x:si>
   <x:si>
     <x:t>1210034</x:t>
@@ -1037,7 +1037,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45906.6775083333</x:v>
+        <x:v>45906.4145265046</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1069,7 +1069,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.4145265046</x:v>
+        <x:v>45906.6653118866</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1101,7 +1101,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.6653118866</x:v>
+        <x:v>45906.6645260069</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1133,7 +1133,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.6645260069</x:v>
+        <x:v>45906.4151256944</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1165,7 +1165,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.4151256944</x:v>
+        <x:v>45928.651734838</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1197,7 +1197,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.6660945602</x:v>
+        <x:v>45906.6649344907</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1229,7 +1229,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.6649344907</x:v>
+        <x:v>45906.6729691319</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1261,7 +1261,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.6729691319</x:v>
+        <x:v>45928.6314503125</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>

--- a/downloaded_files/MEES481_Lecture-35710.xlsx
+++ b/downloaded_files/MEES481_Lecture-35710.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -58,15 +58,6 @@
   </x:si>
   <x:si>
     <x:t>Ahmed Mostafa Elsayed Ahmed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210049</x:t>
-  </x:si>
-  <x:si>
-    <x:t>تقى محمد صلاح الدين محمد مدبولى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Toka Mohamed Salah El Dine Mohamed Madbouly</x:t>
   </x:si>
   <x:si>
     <x:t>1210099</x:t>
@@ -326,7 +317,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E21" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E20" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -626,7 +617,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T21"/>
+  <x:dimension ref="A1:T20"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -813,7 +804,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45927.9033905903</x:v>
+        <x:v>45906.6646397338</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -845,7 +836,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45906.6646397338</x:v>
+        <x:v>45906.6648852199</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -877,7 +868,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45906.6648852199</x:v>
+        <x:v>45927.4163445255</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -909,7 +900,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45927.4163445255</x:v>
+        <x:v>45906.6651360764</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -941,7 +932,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45906.6651360764</x:v>
+        <x:v>45906.6646386574</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -973,7 +964,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45906.6646386574</x:v>
+        <x:v>45906.6650502315</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1005,7 +996,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.6650502315</x:v>
+        <x:v>45906.4145265046</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1037,7 +1028,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45906.4145265046</x:v>
+        <x:v>45906.6653118866</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1069,7 +1060,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.6653118866</x:v>
+        <x:v>45906.6645260069</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1101,7 +1092,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.6645260069</x:v>
+        <x:v>45906.4151256944</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1133,7 +1124,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.4151256944</x:v>
+        <x:v>45928.651734838</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1165,7 +1156,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45928.651734838</x:v>
+        <x:v>45906.6649344907</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1197,7 +1188,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.6649344907</x:v>
+        <x:v>45906.6729691319</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1229,7 +1220,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.6729691319</x:v>
+        <x:v>45928.6314503125</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1261,7 +1252,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45928.6314503125</x:v>
+        <x:v>45906.6645776968</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1293,7 +1284,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.6645776968</x:v>
+        <x:v>45906.4148245023</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1310,38 +1301,6 @@
       <x:c r="R20" s="2" t="s"/>
       <x:c r="S20" s="2" t="s"/>
       <x:c r="T20" s="2" t="s"/>
-    </x:row>
-    <x:row r="21" spans="1:20">
-      <x:c r="A21" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B21" s="2" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="C21" s="2" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="D21" s="2" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="E21" s="3">
-        <x:v>45906.4148245023</x:v>
-      </x:c>
-      <x:c r="F21" s="2" t="s"/>
-      <x:c r="G21" s="2" t="s"/>
-      <x:c r="H21" s="2" t="s"/>
-      <x:c r="I21" s="2" t="s"/>
-      <x:c r="J21" s="2" t="s"/>
-      <x:c r="K21" s="2" t="s"/>
-      <x:c r="L21" s="2" t="s"/>
-      <x:c r="M21" s="2" t="s"/>
-      <x:c r="N21" s="2" t="s"/>
-      <x:c r="O21" s="2" t="s"/>
-      <x:c r="P21" s="2" t="s"/>
-      <x:c r="Q21" s="2" t="s"/>
-      <x:c r="R21" s="2" t="s"/>
-      <x:c r="S21" s="2" t="s"/>
-      <x:c r="T21" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MEES481_Lecture-35710.xlsx
+++ b/downloaded_files/MEES481_Lecture-35710.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="163">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -42,6 +42,15 @@
     <x:t>ِAhmed Khaled Abd Al-hady Ibrahim</x:t>
   </x:si>
   <x:si>
+    <x:t>1210180</x:t>
+  </x:si>
+  <x:si>
+    <x:t>أحمد مروان كامل عبد العزيز محمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmed Marwan Kamel Abd Alaziz</x:t>
+  </x:si>
+  <x:si>
     <x:t>1210182</x:t>
   </x:si>
   <x:si>
@@ -51,6 +60,33 @@
     <x:t>ARWA MOHAMED MAHMOUD MOHAMED IBRAHIM</x:t>
   </x:si>
   <x:si>
+    <x:t>1210403</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد سامح عاطف عشيش</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmed Sameh Atef Eshashe</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1200787</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد على حسين صفيان</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AHMED ALY HUSSEIN SAFIAN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210404</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد عماد عبدالله مصطفى البحراوى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmed Emad AbdAllah Elbahrawi</x:t>
+  </x:si>
+  <x:si>
     <x:t>1210126</x:t>
   </x:si>
   <x:si>
@@ -60,6 +96,48 @@
     <x:t>Ahmed Mostafa Elsayed Ahmed</x:t>
   </x:si>
   <x:si>
+    <x:t>1210348</x:t>
+  </x:si>
+  <x:si>
+    <x:t>بيشوى بطرس انعام شحاته</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bishoy Botros Enaam Shehata</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210132</x:t>
+  </x:si>
+  <x:si>
+    <x:t>بيشوى كمال برسوم كمال ابو غالى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bishoy Kamal Barsoum Kamal</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210049</x:t>
+  </x:si>
+  <x:si>
+    <x:t>تقى محمد صلاح الدين محمد مدبولى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Toka Mohamed Salah El Dine Mohamed Madbouly</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210214</x:t>
+  </x:si>
+  <x:si>
+    <x:t>حازم محمد عبد السلام لطفي</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hazem mohamed abdelsalam lotfy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4220116</x:t>
+  </x:si>
+  <x:si>
+    <x:t>حسين ياسر محمد ابراهيم صقر</x:t>
+  </x:si>
+  <x:si>
     <x:t>1210099</x:t>
   </x:si>
   <x:si>
@@ -114,6 +192,24 @@
     <x:t>Abdelrahman Tamer Hanafy Mahmoud Mohamed</x:t>
   </x:si>
   <x:si>
+    <x:t>1210149</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبد الله أمير عبد المنعم خفاجي</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abdullah Amir Abdel monegan khafagy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210352</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبدالرحمن خالد محمد محمود جادالله</x:t>
+  </x:si>
+  <x:si>
+    <x:t>abdulrhman khalid mohamed</x:t>
+  </x:si>
+  <x:si>
     <x:t>4220128</x:t>
   </x:si>
   <x:si>
@@ -123,6 +219,24 @@
     <x:t>Abdel Rahman Mahmoud</x:t>
   </x:si>
   <x:si>
+    <x:t>1210059</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبدالرحمن هانى احمد رافت سيد حسن عبد الرؤوف</x:t>
+  </x:si>
+  <x:si>
+    <x:t>abdelrahman hany ahmed raafat</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210251</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبدالرحمن وائل عبدالرازق السيد موافى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abdelrahman wael abdelrazek el seid</x:t>
+  </x:si>
+  <x:si>
     <x:t>1210063</x:t>
   </x:si>
   <x:si>
@@ -132,6 +246,15 @@
     <x:t>ali wael mohammed ali ahmed</x:t>
   </x:si>
   <x:si>
+    <x:t>1210262</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر خالد خليل محمد خلف</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Omar Khaled Khalil Mohamed Khalaf</x:t>
+  </x:si>
+  <x:si>
     <x:t>1210066</x:t>
   </x:si>
   <x:si>
@@ -141,6 +264,15 @@
     <x:t>Omar Sobhy Ellethy</x:t>
   </x:si>
   <x:si>
+    <x:t>1210067</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر محمد عبد الصمد ذكى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Omar Mohamed Abdel Samad Zaky</x:t>
+  </x:si>
+  <x:si>
     <x:t>1210268</x:t>
   </x:si>
   <x:si>
@@ -150,6 +282,60 @@
     <x:t>Omar Wael Mostafa Sayed</x:t>
   </x:si>
   <x:si>
+    <x:t>1210021</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمرو محمد صديق جاد الرب محمود</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Amr Mohamed Seddeek Gad Elrab Mahmoud</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210409</x:t>
+  </x:si>
+  <x:si>
+    <x:t>فاطمه عبدالعزيز محمد عبده</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fatma Abdelaziz Mohamed Abdo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210110</x:t>
+  </x:si>
+  <x:si>
+    <x:t>كريم أشرف وجدى دسوقى محمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kareem Ashraf wagdy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210373</x:t>
+  </x:si>
+  <x:si>
+    <x:t>كريم عمرو محمد سعد أحمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kreem Amr Mohamed Saad Ahmed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210285</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مازن احمد محمود سامي عبد المطلب شحاته</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mazen Ahmed Mahmoud Sami Abdel-Mottalib Shehata</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210076</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد شريف علاء جمال الدين زكى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohamed sherif alaa gamal eldin</x:t>
+  </x:si>
+  <x:si>
     <x:t>1210159</x:t>
   </x:si>
   <x:si>
@@ -159,6 +345,33 @@
     <x:t>Mohamed Sabry Hassan Mohamed</x:t>
   </x:si>
   <x:si>
+    <x:t>1210290</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد عمرو هاني حسين سيد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohamed amr hany hussein sayed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210292</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد نهاد سيد احمد القنواتي</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">  Mohamed Nehad Sayed Ahmed El kanawaty</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210027</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمود احمد عبد الحميد محمد سالمان</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mahmoud Ahmed Abdel-Hamid Salman</x:t>
+  </x:si>
+  <x:si>
     <x:t>1200264</x:t>
   </x:si>
   <x:si>
@@ -168,6 +381,60 @@
     <x:t>Mahmoud Khaled Mohamed</x:t>
   </x:si>
   <x:si>
+    <x:t>1210297</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمود وليد محمود عبدالرحمن الشايب</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mahmoud Waleed Mahmoud El Shayep</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4220129</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مروان محمد عاشور حسنين</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Marwan Mohamed Ashour Hassanin</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4210425</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مريام تامر صديق حنا</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Meriam Tamer Saddik Hanna</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210307</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مصطفى شادي محمود محمد الشجيع</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mostafa Shady Mahmoud Mohamed Elshagie</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210083</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مصطفى هانى عبد الفتاح محمود العطار</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mostafa Hany Abdelfattah</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210417</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مصعب محمد عبد اللاه على عبد اللاه</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mosaab Mohammed Abdella Ali</x:t>
+  </x:si>
+  <x:si>
     <x:t>1210311</x:t>
   </x:si>
   <x:si>
@@ -186,6 +453,15 @@
     <x:t>Menna Tullah Medhat Abdelrazik Aly</x:t>
   </x:si>
   <x:si>
+    <x:t>1210419</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مينا عادل ماهر وصفى ناثان</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mina Adel Maher Wasfi Nathan</x:t>
+  </x:si>
+  <x:si>
     <x:t>1210034</x:t>
   </x:si>
   <x:si>
@@ -195,6 +471,24 @@
     <x:t>Naira Mohamed Salah Eldin fathallah</x:t>
   </x:si>
   <x:si>
+    <x:t>4220147</x:t>
+  </x:si>
+  <x:si>
+    <x:t>وليد اشرف ابراهيم عبدالنبى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WALEED ASHRAF IBRAHIM ABDELNABI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210338</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوسف سيد بدير احمد امين</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Youssef sayed bedier ahmed amin</x:t>
+  </x:si>
+  <x:si>
     <x:t>1210340</x:t>
   </x:si>
   <x:si>
@@ -202,6 +496,15 @@
   </x:si>
   <x:si>
     <x:t>Youssef Mohsen Samy Yakoub</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210095</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوسف مصطفى محمد محمد شميلة</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Youssef Mostafa Mohamed Mohamed Shemela</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -317,7 +620,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E20" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E54" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -617,7 +920,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T20"/>
+  <x:dimension ref="A1:T54"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -625,8 +928,8 @@
   <x:cols>
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="28.840625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="46.520625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="37.110625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="48.960625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
@@ -740,7 +1043,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45906.4147820602</x:v>
+        <x:v>45933.3506679398</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -772,7 +1075,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45906.6649310995</x:v>
+        <x:v>45906.4147820602</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -804,7 +1107,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45906.6646397338</x:v>
+        <x:v>45933.4636409375</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -836,7 +1139,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45906.6648852199</x:v>
+        <x:v>45933.3496663194</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -868,7 +1171,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45927.4163445255</x:v>
+        <x:v>45933.3517577199</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -900,7 +1203,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45906.6651360764</x:v>
+        <x:v>45906.6649310995</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -932,7 +1235,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45906.6646386574</x:v>
+        <x:v>45933.3442098727</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -964,7 +1267,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45906.6650502315</x:v>
+        <x:v>45933.349965625</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -996,7 +1299,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.4145265046</x:v>
+        <x:v>45933.3636395486</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1028,7 +1331,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45906.6653118866</x:v>
+        <x:v>45933.351334838</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1056,11 +1359,9 @@
       <x:c r="C13" s="2" t="s">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="D13" s="2" t="s">
-        <x:v>40</x:v>
-      </x:c>
+      <x:c r="D13" s="2" t="s"/>
       <x:c r="E13" s="3">
-        <x:v>45906.6645260069</x:v>
+        <x:v>45933.3671975347</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1083,16 +1384,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B14" s="2" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="C14" s="2" t="s">
         <x:v>41</x:v>
       </x:c>
-      <x:c r="C14" s="2" t="s">
+      <x:c r="D14" s="2" t="s">
         <x:v>42</x:v>
       </x:c>
-      <x:c r="D14" s="2" t="s">
-        <x:v>43</x:v>
-      </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.4151256944</x:v>
+        <x:v>45906.6646397338</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1115,16 +1416,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B15" s="2" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="C15" s="2" t="s">
         <x:v>44</x:v>
       </x:c>
-      <x:c r="C15" s="2" t="s">
+      <x:c r="D15" s="2" t="s">
         <x:v>45</x:v>
       </x:c>
-      <x:c r="D15" s="2" t="s">
-        <x:v>46</x:v>
-      </x:c>
       <x:c r="E15" s="3">
-        <x:v>45928.651734838</x:v>
+        <x:v>45906.6648852199</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1147,16 +1448,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B16" s="2" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="C16" s="2" t="s">
         <x:v>47</x:v>
       </x:c>
-      <x:c r="C16" s="2" t="s">
+      <x:c r="D16" s="2" t="s">
         <x:v>48</x:v>
       </x:c>
-      <x:c r="D16" s="2" t="s">
-        <x:v>49</x:v>
-      </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.6649344907</x:v>
+        <x:v>45927.4163445255</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1179,16 +1480,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B17" s="2" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="C17" s="2" t="s">
         <x:v>50</x:v>
       </x:c>
-      <x:c r="C17" s="2" t="s">
+      <x:c r="D17" s="2" t="s">
         <x:v>51</x:v>
       </x:c>
-      <x:c r="D17" s="2" t="s">
-        <x:v>52</x:v>
-      </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.6729691319</x:v>
+        <x:v>45906.6651360764</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1211,16 +1512,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B18" s="2" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="C18" s="2" t="s">
         <x:v>53</x:v>
       </x:c>
-      <x:c r="C18" s="2" t="s">
+      <x:c r="D18" s="2" t="s">
         <x:v>54</x:v>
       </x:c>
-      <x:c r="D18" s="2" t="s">
-        <x:v>55</x:v>
-      </x:c>
       <x:c r="E18" s="3">
-        <x:v>45928.6314503125</x:v>
+        <x:v>45906.6646386574</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1243,16 +1544,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B19" s="2" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="C19" s="2" t="s">
         <x:v>56</x:v>
       </x:c>
-      <x:c r="C19" s="2" t="s">
+      <x:c r="D19" s="2" t="s">
         <x:v>57</x:v>
       </x:c>
-      <x:c r="D19" s="2" t="s">
-        <x:v>58</x:v>
-      </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.6645776968</x:v>
+        <x:v>45906.6650502315</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1275,16 +1576,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B20" s="2" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="C20" s="2" t="s">
         <x:v>59</x:v>
       </x:c>
-      <x:c r="C20" s="2" t="s">
+      <x:c r="D20" s="2" t="s">
         <x:v>60</x:v>
       </x:c>
-      <x:c r="D20" s="2" t="s">
-        <x:v>61</x:v>
-      </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.4148245023</x:v>
+        <x:v>45933.3523751157</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1302,18 +1603,1109 @@
       <x:c r="S20" s="2" t="s"/>
       <x:c r="T20" s="2" t="s"/>
     </x:row>
+    <x:row r="21" spans="1:20">
+      <x:c r="A21" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B21" s="2" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="C21" s="2" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="D21" s="2" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="E21" s="3">
+        <x:v>45933.352156169</x:v>
+      </x:c>
+      <x:c r="F21" s="2" t="s"/>
+      <x:c r="G21" s="2" t="s"/>
+      <x:c r="H21" s="2" t="s"/>
+      <x:c r="I21" s="2" t="s"/>
+      <x:c r="J21" s="2" t="s"/>
+      <x:c r="K21" s="2" t="s"/>
+      <x:c r="L21" s="2" t="s"/>
+      <x:c r="M21" s="2" t="s"/>
+      <x:c r="N21" s="2" t="s"/>
+      <x:c r="O21" s="2" t="s"/>
+      <x:c r="P21" s="2" t="s"/>
+      <x:c r="Q21" s="2" t="s"/>
+      <x:c r="R21" s="2" t="s"/>
+      <x:c r="S21" s="2" t="s"/>
+      <x:c r="T21" s="2" t="s"/>
+    </x:row>
+    <x:row r="22" spans="1:20">
+      <x:c r="A22" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B22" s="2" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="C22" s="2" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="D22" s="2" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="E22" s="3">
+        <x:v>45906.4145265046</x:v>
+      </x:c>
+      <x:c r="F22" s="2" t="s"/>
+      <x:c r="G22" s="2" t="s"/>
+      <x:c r="H22" s="2" t="s"/>
+      <x:c r="I22" s="2" t="s"/>
+      <x:c r="J22" s="2" t="s"/>
+      <x:c r="K22" s="2" t="s"/>
+      <x:c r="L22" s="2" t="s"/>
+      <x:c r="M22" s="2" t="s"/>
+      <x:c r="N22" s="2" t="s"/>
+      <x:c r="O22" s="2" t="s"/>
+      <x:c r="P22" s="2" t="s"/>
+      <x:c r="Q22" s="2" t="s"/>
+      <x:c r="R22" s="2" t="s"/>
+      <x:c r="S22" s="2" t="s"/>
+      <x:c r="T22" s="2" t="s"/>
+    </x:row>
+    <x:row r="23" spans="1:20">
+      <x:c r="A23" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B23" s="2" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="C23" s="2" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="D23" s="2" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="E23" s="3">
+        <x:v>45933.358359838</x:v>
+      </x:c>
+      <x:c r="F23" s="2" t="s"/>
+      <x:c r="G23" s="2" t="s"/>
+      <x:c r="H23" s="2" t="s"/>
+      <x:c r="I23" s="2" t="s"/>
+      <x:c r="J23" s="2" t="s"/>
+      <x:c r="K23" s="2" t="s"/>
+      <x:c r="L23" s="2" t="s"/>
+      <x:c r="M23" s="2" t="s"/>
+      <x:c r="N23" s="2" t="s"/>
+      <x:c r="O23" s="2" t="s"/>
+      <x:c r="P23" s="2" t="s"/>
+      <x:c r="Q23" s="2" t="s"/>
+      <x:c r="R23" s="2" t="s"/>
+      <x:c r="S23" s="2" t="s"/>
+      <x:c r="T23" s="2" t="s"/>
+    </x:row>
+    <x:row r="24" spans="1:20">
+      <x:c r="A24" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B24" s="2" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="C24" s="2" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="D24" s="2" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="E24" s="3">
+        <x:v>45933.3494470718</x:v>
+      </x:c>
+      <x:c r="F24" s="2" t="s"/>
+      <x:c r="G24" s="2" t="s"/>
+      <x:c r="H24" s="2" t="s"/>
+      <x:c r="I24" s="2" t="s"/>
+      <x:c r="J24" s="2" t="s"/>
+      <x:c r="K24" s="2" t="s"/>
+      <x:c r="L24" s="2" t="s"/>
+      <x:c r="M24" s="2" t="s"/>
+      <x:c r="N24" s="2" t="s"/>
+      <x:c r="O24" s="2" t="s"/>
+      <x:c r="P24" s="2" t="s"/>
+      <x:c r="Q24" s="2" t="s"/>
+      <x:c r="R24" s="2" t="s"/>
+      <x:c r="S24" s="2" t="s"/>
+      <x:c r="T24" s="2" t="s"/>
+    </x:row>
+    <x:row r="25" spans="1:20">
+      <x:c r="A25" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B25" s="2" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="C25" s="2" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="D25" s="2" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="E25" s="3">
+        <x:v>45906.6653118866</x:v>
+      </x:c>
+      <x:c r="F25" s="2" t="s"/>
+      <x:c r="G25" s="2" t="s"/>
+      <x:c r="H25" s="2" t="s"/>
+      <x:c r="I25" s="2" t="s"/>
+      <x:c r="J25" s="2" t="s"/>
+      <x:c r="K25" s="2" t="s"/>
+      <x:c r="L25" s="2" t="s"/>
+      <x:c r="M25" s="2" t="s"/>
+      <x:c r="N25" s="2" t="s"/>
+      <x:c r="O25" s="2" t="s"/>
+      <x:c r="P25" s="2" t="s"/>
+      <x:c r="Q25" s="2" t="s"/>
+      <x:c r="R25" s="2" t="s"/>
+      <x:c r="S25" s="2" t="s"/>
+      <x:c r="T25" s="2" t="s"/>
+    </x:row>
+    <x:row r="26" spans="1:20">
+      <x:c r="A26" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B26" s="2" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="C26" s="2" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="D26" s="2" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="E26" s="3">
+        <x:v>45933.3671975347</x:v>
+      </x:c>
+      <x:c r="F26" s="2" t="s"/>
+      <x:c r="G26" s="2" t="s"/>
+      <x:c r="H26" s="2" t="s"/>
+      <x:c r="I26" s="2" t="s"/>
+      <x:c r="J26" s="2" t="s"/>
+      <x:c r="K26" s="2" t="s"/>
+      <x:c r="L26" s="2" t="s"/>
+      <x:c r="M26" s="2" t="s"/>
+      <x:c r="N26" s="2" t="s"/>
+      <x:c r="O26" s="2" t="s"/>
+      <x:c r="P26" s="2" t="s"/>
+      <x:c r="Q26" s="2" t="s"/>
+      <x:c r="R26" s="2" t="s"/>
+      <x:c r="S26" s="2" t="s"/>
+      <x:c r="T26" s="2" t="s"/>
+    </x:row>
+    <x:row r="27" spans="1:20">
+      <x:c r="A27" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B27" s="2" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="C27" s="2" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="D27" s="2" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="E27" s="3">
+        <x:v>45906.6645260069</x:v>
+      </x:c>
+      <x:c r="F27" s="2" t="s"/>
+      <x:c r="G27" s="2" t="s"/>
+      <x:c r="H27" s="2" t="s"/>
+      <x:c r="I27" s="2" t="s"/>
+      <x:c r="J27" s="2" t="s"/>
+      <x:c r="K27" s="2" t="s"/>
+      <x:c r="L27" s="2" t="s"/>
+      <x:c r="M27" s="2" t="s"/>
+      <x:c r="N27" s="2" t="s"/>
+      <x:c r="O27" s="2" t="s"/>
+      <x:c r="P27" s="2" t="s"/>
+      <x:c r="Q27" s="2" t="s"/>
+      <x:c r="R27" s="2" t="s"/>
+      <x:c r="S27" s="2" t="s"/>
+      <x:c r="T27" s="2" t="s"/>
+    </x:row>
+    <x:row r="28" spans="1:20">
+      <x:c r="A28" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B28" s="2" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="C28" s="2" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="D28" s="2" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="E28" s="3">
+        <x:v>45933.3531239583</x:v>
+      </x:c>
+      <x:c r="F28" s="2" t="s"/>
+      <x:c r="G28" s="2" t="s"/>
+      <x:c r="H28" s="2" t="s"/>
+      <x:c r="I28" s="2" t="s"/>
+      <x:c r="J28" s="2" t="s"/>
+      <x:c r="K28" s="2" t="s"/>
+      <x:c r="L28" s="2" t="s"/>
+      <x:c r="M28" s="2" t="s"/>
+      <x:c r="N28" s="2" t="s"/>
+      <x:c r="O28" s="2" t="s"/>
+      <x:c r="P28" s="2" t="s"/>
+      <x:c r="Q28" s="2" t="s"/>
+      <x:c r="R28" s="2" t="s"/>
+      <x:c r="S28" s="2" t="s"/>
+      <x:c r="T28" s="2" t="s"/>
+    </x:row>
+    <x:row r="29" spans="1:20">
+      <x:c r="A29" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B29" s="2" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="C29" s="2" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="D29" s="2" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="E29" s="3">
+        <x:v>45906.4151256944</x:v>
+      </x:c>
+      <x:c r="F29" s="2" t="s"/>
+      <x:c r="G29" s="2" t="s"/>
+      <x:c r="H29" s="2" t="s"/>
+      <x:c r="I29" s="2" t="s"/>
+      <x:c r="J29" s="2" t="s"/>
+      <x:c r="K29" s="2" t="s"/>
+      <x:c r="L29" s="2" t="s"/>
+      <x:c r="M29" s="2" t="s"/>
+      <x:c r="N29" s="2" t="s"/>
+      <x:c r="O29" s="2" t="s"/>
+      <x:c r="P29" s="2" t="s"/>
+      <x:c r="Q29" s="2" t="s"/>
+      <x:c r="R29" s="2" t="s"/>
+      <x:c r="S29" s="2" t="s"/>
+      <x:c r="T29" s="2" t="s"/>
+    </x:row>
+    <x:row r="30" spans="1:20">
+      <x:c r="A30" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B30" s="2" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="C30" s="2" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="D30" s="2" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="E30" s="3">
+        <x:v>45933.3581216088</x:v>
+      </x:c>
+      <x:c r="F30" s="2" t="s"/>
+      <x:c r="G30" s="2" t="s"/>
+      <x:c r="H30" s="2" t="s"/>
+      <x:c r="I30" s="2" t="s"/>
+      <x:c r="J30" s="2" t="s"/>
+      <x:c r="K30" s="2" t="s"/>
+      <x:c r="L30" s="2" t="s"/>
+      <x:c r="M30" s="2" t="s"/>
+      <x:c r="N30" s="2" t="s"/>
+      <x:c r="O30" s="2" t="s"/>
+      <x:c r="P30" s="2" t="s"/>
+      <x:c r="Q30" s="2" t="s"/>
+      <x:c r="R30" s="2" t="s"/>
+      <x:c r="S30" s="2" t="s"/>
+      <x:c r="T30" s="2" t="s"/>
+    </x:row>
+    <x:row r="31" spans="1:20">
+      <x:c r="A31" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B31" s="2" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="C31" s="2" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="D31" s="2" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="E31" s="3">
+        <x:v>45933.4630226852</x:v>
+      </x:c>
+      <x:c r="F31" s="2" t="s"/>
+      <x:c r="G31" s="2" t="s"/>
+      <x:c r="H31" s="2" t="s"/>
+      <x:c r="I31" s="2" t="s"/>
+      <x:c r="J31" s="2" t="s"/>
+      <x:c r="K31" s="2" t="s"/>
+      <x:c r="L31" s="2" t="s"/>
+      <x:c r="M31" s="2" t="s"/>
+      <x:c r="N31" s="2" t="s"/>
+      <x:c r="O31" s="2" t="s"/>
+      <x:c r="P31" s="2" t="s"/>
+      <x:c r="Q31" s="2" t="s"/>
+      <x:c r="R31" s="2" t="s"/>
+      <x:c r="S31" s="2" t="s"/>
+      <x:c r="T31" s="2" t="s"/>
+    </x:row>
+    <x:row r="32" spans="1:20">
+      <x:c r="A32" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B32" s="2" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="C32" s="2" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="D32" s="2" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="E32" s="3">
+        <x:v>45933.406812037</x:v>
+      </x:c>
+      <x:c r="F32" s="2" t="s"/>
+      <x:c r="G32" s="2" t="s"/>
+      <x:c r="H32" s="2" t="s"/>
+      <x:c r="I32" s="2" t="s"/>
+      <x:c r="J32" s="2" t="s"/>
+      <x:c r="K32" s="2" t="s"/>
+      <x:c r="L32" s="2" t="s"/>
+      <x:c r="M32" s="2" t="s"/>
+      <x:c r="N32" s="2" t="s"/>
+      <x:c r="O32" s="2" t="s"/>
+      <x:c r="P32" s="2" t="s"/>
+      <x:c r="Q32" s="2" t="s"/>
+      <x:c r="R32" s="2" t="s"/>
+      <x:c r="S32" s="2" t="s"/>
+      <x:c r="T32" s="2" t="s"/>
+    </x:row>
+    <x:row r="33" spans="1:20">
+      <x:c r="A33" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B33" s="2" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="C33" s="2" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="D33" s="2" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="E33" s="3">
+        <x:v>45933.3671975347</x:v>
+      </x:c>
+      <x:c r="F33" s="2" t="s"/>
+      <x:c r="G33" s="2" t="s"/>
+      <x:c r="H33" s="2" t="s"/>
+      <x:c r="I33" s="2" t="s"/>
+      <x:c r="J33" s="2" t="s"/>
+      <x:c r="K33" s="2" t="s"/>
+      <x:c r="L33" s="2" t="s"/>
+      <x:c r="M33" s="2" t="s"/>
+      <x:c r="N33" s="2" t="s"/>
+      <x:c r="O33" s="2" t="s"/>
+      <x:c r="P33" s="2" t="s"/>
+      <x:c r="Q33" s="2" t="s"/>
+      <x:c r="R33" s="2" t="s"/>
+      <x:c r="S33" s="2" t="s"/>
+      <x:c r="T33" s="2" t="s"/>
+    </x:row>
+    <x:row r="34" spans="1:20">
+      <x:c r="A34" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B34" s="2" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="C34" s="2" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="D34" s="2" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="E34" s="3">
+        <x:v>45933.3545011574</x:v>
+      </x:c>
+      <x:c r="F34" s="2" t="s"/>
+      <x:c r="G34" s="2" t="s"/>
+      <x:c r="H34" s="2" t="s"/>
+      <x:c r="I34" s="2" t="s"/>
+      <x:c r="J34" s="2" t="s"/>
+      <x:c r="K34" s="2" t="s"/>
+      <x:c r="L34" s="2" t="s"/>
+      <x:c r="M34" s="2" t="s"/>
+      <x:c r="N34" s="2" t="s"/>
+      <x:c r="O34" s="2" t="s"/>
+      <x:c r="P34" s="2" t="s"/>
+      <x:c r="Q34" s="2" t="s"/>
+      <x:c r="R34" s="2" t="s"/>
+      <x:c r="S34" s="2" t="s"/>
+      <x:c r="T34" s="2" t="s"/>
+    </x:row>
+    <x:row r="35" spans="1:20">
+      <x:c r="A35" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B35" s="2" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="C35" s="2" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="D35" s="2" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="E35" s="3">
+        <x:v>45933.3571469097</x:v>
+      </x:c>
+      <x:c r="F35" s="2" t="s"/>
+      <x:c r="G35" s="2" t="s"/>
+      <x:c r="H35" s="2" t="s"/>
+      <x:c r="I35" s="2" t="s"/>
+      <x:c r="J35" s="2" t="s"/>
+      <x:c r="K35" s="2" t="s"/>
+      <x:c r="L35" s="2" t="s"/>
+      <x:c r="M35" s="2" t="s"/>
+      <x:c r="N35" s="2" t="s"/>
+      <x:c r="O35" s="2" t="s"/>
+      <x:c r="P35" s="2" t="s"/>
+      <x:c r="Q35" s="2" t="s"/>
+      <x:c r="R35" s="2" t="s"/>
+      <x:c r="S35" s="2" t="s"/>
+      <x:c r="T35" s="2" t="s"/>
+    </x:row>
+    <x:row r="36" spans="1:20">
+      <x:c r="A36" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B36" s="2" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="C36" s="2" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="D36" s="2" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="E36" s="3">
+        <x:v>45928.651734838</x:v>
+      </x:c>
+      <x:c r="F36" s="2" t="s"/>
+      <x:c r="G36" s="2" t="s"/>
+      <x:c r="H36" s="2" t="s"/>
+      <x:c r="I36" s="2" t="s"/>
+      <x:c r="J36" s="2" t="s"/>
+      <x:c r="K36" s="2" t="s"/>
+      <x:c r="L36" s="2" t="s"/>
+      <x:c r="M36" s="2" t="s"/>
+      <x:c r="N36" s="2" t="s"/>
+      <x:c r="O36" s="2" t="s"/>
+      <x:c r="P36" s="2" t="s"/>
+      <x:c r="Q36" s="2" t="s"/>
+      <x:c r="R36" s="2" t="s"/>
+      <x:c r="S36" s="2" t="s"/>
+      <x:c r="T36" s="2" t="s"/>
+    </x:row>
+    <x:row r="37" spans="1:20">
+      <x:c r="A37" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B37" s="2" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="C37" s="2" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="D37" s="2" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="E37" s="3">
+        <x:v>45933.3448496528</x:v>
+      </x:c>
+      <x:c r="F37" s="2" t="s"/>
+      <x:c r="G37" s="2" t="s"/>
+      <x:c r="H37" s="2" t="s"/>
+      <x:c r="I37" s="2" t="s"/>
+      <x:c r="J37" s="2" t="s"/>
+      <x:c r="K37" s="2" t="s"/>
+      <x:c r="L37" s="2" t="s"/>
+      <x:c r="M37" s="2" t="s"/>
+      <x:c r="N37" s="2" t="s"/>
+      <x:c r="O37" s="2" t="s"/>
+      <x:c r="P37" s="2" t="s"/>
+      <x:c r="Q37" s="2" t="s"/>
+      <x:c r="R37" s="2" t="s"/>
+      <x:c r="S37" s="2" t="s"/>
+      <x:c r="T37" s="2" t="s"/>
+    </x:row>
+    <x:row r="38" spans="1:20">
+      <x:c r="A38" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B38" s="2" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="C38" s="2" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="D38" s="2" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="E38" s="3">
+        <x:v>45933.3421963773</x:v>
+      </x:c>
+      <x:c r="F38" s="2" t="s"/>
+      <x:c r="G38" s="2" t="s"/>
+      <x:c r="H38" s="2" t="s"/>
+      <x:c r="I38" s="2" t="s"/>
+      <x:c r="J38" s="2" t="s"/>
+      <x:c r="K38" s="2" t="s"/>
+      <x:c r="L38" s="2" t="s"/>
+      <x:c r="M38" s="2" t="s"/>
+      <x:c r="N38" s="2" t="s"/>
+      <x:c r="O38" s="2" t="s"/>
+      <x:c r="P38" s="2" t="s"/>
+      <x:c r="Q38" s="2" t="s"/>
+      <x:c r="R38" s="2" t="s"/>
+      <x:c r="S38" s="2" t="s"/>
+      <x:c r="T38" s="2" t="s"/>
+    </x:row>
+    <x:row r="39" spans="1:20">
+      <x:c r="A39" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B39" s="2" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="C39" s="2" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="D39" s="2" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="E39" s="3">
+        <x:v>45933.3519554051</x:v>
+      </x:c>
+      <x:c r="F39" s="2" t="s"/>
+      <x:c r="G39" s="2" t="s"/>
+      <x:c r="H39" s="2" t="s"/>
+      <x:c r="I39" s="2" t="s"/>
+      <x:c r="J39" s="2" t="s"/>
+      <x:c r="K39" s="2" t="s"/>
+      <x:c r="L39" s="2" t="s"/>
+      <x:c r="M39" s="2" t="s"/>
+      <x:c r="N39" s="2" t="s"/>
+      <x:c r="O39" s="2" t="s"/>
+      <x:c r="P39" s="2" t="s"/>
+      <x:c r="Q39" s="2" t="s"/>
+      <x:c r="R39" s="2" t="s"/>
+      <x:c r="S39" s="2" t="s"/>
+      <x:c r="T39" s="2" t="s"/>
+    </x:row>
+    <x:row r="40" spans="1:20">
+      <x:c r="A40" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B40" s="2" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="C40" s="2" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="D40" s="2" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="E40" s="3">
+        <x:v>45906.6649344907</x:v>
+      </x:c>
+      <x:c r="F40" s="2" t="s"/>
+      <x:c r="G40" s="2" t="s"/>
+      <x:c r="H40" s="2" t="s"/>
+      <x:c r="I40" s="2" t="s"/>
+      <x:c r="J40" s="2" t="s"/>
+      <x:c r="K40" s="2" t="s"/>
+      <x:c r="L40" s="2" t="s"/>
+      <x:c r="M40" s="2" t="s"/>
+      <x:c r="N40" s="2" t="s"/>
+      <x:c r="O40" s="2" t="s"/>
+      <x:c r="P40" s="2" t="s"/>
+      <x:c r="Q40" s="2" t="s"/>
+      <x:c r="R40" s="2" t="s"/>
+      <x:c r="S40" s="2" t="s"/>
+      <x:c r="T40" s="2" t="s"/>
+    </x:row>
+    <x:row r="41" spans="1:20">
+      <x:c r="A41" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B41" s="2" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="C41" s="2" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="D41" s="2" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="E41" s="3">
+        <x:v>45933.3492222222</x:v>
+      </x:c>
+      <x:c r="F41" s="2" t="s"/>
+      <x:c r="G41" s="2" t="s"/>
+      <x:c r="H41" s="2" t="s"/>
+      <x:c r="I41" s="2" t="s"/>
+      <x:c r="J41" s="2" t="s"/>
+      <x:c r="K41" s="2" t="s"/>
+      <x:c r="L41" s="2" t="s"/>
+      <x:c r="M41" s="2" t="s"/>
+      <x:c r="N41" s="2" t="s"/>
+      <x:c r="O41" s="2" t="s"/>
+      <x:c r="P41" s="2" t="s"/>
+      <x:c r="Q41" s="2" t="s"/>
+      <x:c r="R41" s="2" t="s"/>
+      <x:c r="S41" s="2" t="s"/>
+      <x:c r="T41" s="2" t="s"/>
+    </x:row>
+    <x:row r="42" spans="1:20">
+      <x:c r="A42" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B42" s="2" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="C42" s="2" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="D42" s="2" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="E42" s="3">
+        <x:v>45933.3671975347</x:v>
+      </x:c>
+      <x:c r="F42" s="2" t="s"/>
+      <x:c r="G42" s="2" t="s"/>
+      <x:c r="H42" s="2" t="s"/>
+      <x:c r="I42" s="2" t="s"/>
+      <x:c r="J42" s="2" t="s"/>
+      <x:c r="K42" s="2" t="s"/>
+      <x:c r="L42" s="2" t="s"/>
+      <x:c r="M42" s="2" t="s"/>
+      <x:c r="N42" s="2" t="s"/>
+      <x:c r="O42" s="2" t="s"/>
+      <x:c r="P42" s="2" t="s"/>
+      <x:c r="Q42" s="2" t="s"/>
+      <x:c r="R42" s="2" t="s"/>
+      <x:c r="S42" s="2" t="s"/>
+      <x:c r="T42" s="2" t="s"/>
+    </x:row>
+    <x:row r="43" spans="1:20">
+      <x:c r="A43" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B43" s="2" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="C43" s="2" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="D43" s="2" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="E43" s="3">
+        <x:v>45933.3525686343</x:v>
+      </x:c>
+      <x:c r="F43" s="2" t="s"/>
+      <x:c r="G43" s="2" t="s"/>
+      <x:c r="H43" s="2" t="s"/>
+      <x:c r="I43" s="2" t="s"/>
+      <x:c r="J43" s="2" t="s"/>
+      <x:c r="K43" s="2" t="s"/>
+      <x:c r="L43" s="2" t="s"/>
+      <x:c r="M43" s="2" t="s"/>
+      <x:c r="N43" s="2" t="s"/>
+      <x:c r="O43" s="2" t="s"/>
+      <x:c r="P43" s="2" t="s"/>
+      <x:c r="Q43" s="2" t="s"/>
+      <x:c r="R43" s="2" t="s"/>
+      <x:c r="S43" s="2" t="s"/>
+      <x:c r="T43" s="2" t="s"/>
+    </x:row>
+    <x:row r="44" spans="1:20">
+      <x:c r="A44" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B44" s="2" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="C44" s="2" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="D44" s="2" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="E44" s="3">
+        <x:v>45933.3671975347</x:v>
+      </x:c>
+      <x:c r="F44" s="2" t="s"/>
+      <x:c r="G44" s="2" t="s"/>
+      <x:c r="H44" s="2" t="s"/>
+      <x:c r="I44" s="2" t="s"/>
+      <x:c r="J44" s="2" t="s"/>
+      <x:c r="K44" s="2" t="s"/>
+      <x:c r="L44" s="2" t="s"/>
+      <x:c r="M44" s="2" t="s"/>
+      <x:c r="N44" s="2" t="s"/>
+      <x:c r="O44" s="2" t="s"/>
+      <x:c r="P44" s="2" t="s"/>
+      <x:c r="Q44" s="2" t="s"/>
+      <x:c r="R44" s="2" t="s"/>
+      <x:c r="S44" s="2" t="s"/>
+      <x:c r="T44" s="2" t="s"/>
+    </x:row>
+    <x:row r="45" spans="1:20">
+      <x:c r="A45" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B45" s="2" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="C45" s="2" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="D45" s="2" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="E45" s="3">
+        <x:v>45933.3501712153</x:v>
+      </x:c>
+      <x:c r="F45" s="2" t="s"/>
+      <x:c r="G45" s="2" t="s"/>
+      <x:c r="H45" s="2" t="s"/>
+      <x:c r="I45" s="2" t="s"/>
+      <x:c r="J45" s="2" t="s"/>
+      <x:c r="K45" s="2" t="s"/>
+      <x:c r="L45" s="2" t="s"/>
+      <x:c r="M45" s="2" t="s"/>
+      <x:c r="N45" s="2" t="s"/>
+      <x:c r="O45" s="2" t="s"/>
+      <x:c r="P45" s="2" t="s"/>
+      <x:c r="Q45" s="2" t="s"/>
+      <x:c r="R45" s="2" t="s"/>
+      <x:c r="S45" s="2" t="s"/>
+      <x:c r="T45" s="2" t="s"/>
+    </x:row>
+    <x:row r="46" spans="1:20">
+      <x:c r="A46" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B46" s="2" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="C46" s="2" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="D46" s="2" t="s">
+        <x:v>138</x:v>
+      </x:c>
+      <x:c r="E46" s="3">
+        <x:v>45933.406812037</x:v>
+      </x:c>
+      <x:c r="F46" s="2" t="s"/>
+      <x:c r="G46" s="2" t="s"/>
+      <x:c r="H46" s="2" t="s"/>
+      <x:c r="I46" s="2" t="s"/>
+      <x:c r="J46" s="2" t="s"/>
+      <x:c r="K46" s="2" t="s"/>
+      <x:c r="L46" s="2" t="s"/>
+      <x:c r="M46" s="2" t="s"/>
+      <x:c r="N46" s="2" t="s"/>
+      <x:c r="O46" s="2" t="s"/>
+      <x:c r="P46" s="2" t="s"/>
+      <x:c r="Q46" s="2" t="s"/>
+      <x:c r="R46" s="2" t="s"/>
+      <x:c r="S46" s="2" t="s"/>
+      <x:c r="T46" s="2" t="s"/>
+    </x:row>
+    <x:row r="47" spans="1:20">
+      <x:c r="A47" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B47" s="2" t="s">
+        <x:v>139</x:v>
+      </x:c>
+      <x:c r="C47" s="2" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="D47" s="2" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="E47" s="3">
+        <x:v>45906.6729691319</x:v>
+      </x:c>
+      <x:c r="F47" s="2" t="s"/>
+      <x:c r="G47" s="2" t="s"/>
+      <x:c r="H47" s="2" t="s"/>
+      <x:c r="I47" s="2" t="s"/>
+      <x:c r="J47" s="2" t="s"/>
+      <x:c r="K47" s="2" t="s"/>
+      <x:c r="L47" s="2" t="s"/>
+      <x:c r="M47" s="2" t="s"/>
+      <x:c r="N47" s="2" t="s"/>
+      <x:c r="O47" s="2" t="s"/>
+      <x:c r="P47" s="2" t="s"/>
+      <x:c r="Q47" s="2" t="s"/>
+      <x:c r="R47" s="2" t="s"/>
+      <x:c r="S47" s="2" t="s"/>
+      <x:c r="T47" s="2" t="s"/>
+    </x:row>
+    <x:row r="48" spans="1:20">
+      <x:c r="A48" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B48" s="2" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="C48" s="2" t="s">
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="D48" s="2" t="s">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="E48" s="3">
+        <x:v>45928.6314503125</x:v>
+      </x:c>
+      <x:c r="F48" s="2" t="s"/>
+      <x:c r="G48" s="2" t="s"/>
+      <x:c r="H48" s="2" t="s"/>
+      <x:c r="I48" s="2" t="s"/>
+      <x:c r="J48" s="2" t="s"/>
+      <x:c r="K48" s="2" t="s"/>
+      <x:c r="L48" s="2" t="s"/>
+      <x:c r="M48" s="2" t="s"/>
+      <x:c r="N48" s="2" t="s"/>
+      <x:c r="O48" s="2" t="s"/>
+      <x:c r="P48" s="2" t="s"/>
+      <x:c r="Q48" s="2" t="s"/>
+      <x:c r="R48" s="2" t="s"/>
+      <x:c r="S48" s="2" t="s"/>
+      <x:c r="T48" s="2" t="s"/>
+    </x:row>
+    <x:row r="49" spans="1:20">
+      <x:c r="A49" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B49" s="2" t="s">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="C49" s="2" t="s">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="D49" s="2" t="s">
+        <x:v>147</x:v>
+      </x:c>
+      <x:c r="E49" s="3">
+        <x:v>45933.3586052894</x:v>
+      </x:c>
+      <x:c r="F49" s="2" t="s"/>
+      <x:c r="G49" s="2" t="s"/>
+      <x:c r="H49" s="2" t="s"/>
+      <x:c r="I49" s="2" t="s"/>
+      <x:c r="J49" s="2" t="s"/>
+      <x:c r="K49" s="2" t="s"/>
+      <x:c r="L49" s="2" t="s"/>
+      <x:c r="M49" s="2" t="s"/>
+      <x:c r="N49" s="2" t="s"/>
+      <x:c r="O49" s="2" t="s"/>
+      <x:c r="P49" s="2" t="s"/>
+      <x:c r="Q49" s="2" t="s"/>
+      <x:c r="R49" s="2" t="s"/>
+      <x:c r="S49" s="2" t="s"/>
+      <x:c r="T49" s="2" t="s"/>
+    </x:row>
+    <x:row r="50" spans="1:20">
+      <x:c r="A50" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B50" s="2" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="C50" s="2" t="s">
+        <x:v>149</x:v>
+      </x:c>
+      <x:c r="D50" s="2" t="s">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="E50" s="3">
+        <x:v>45906.6645776968</x:v>
+      </x:c>
+      <x:c r="F50" s="2" t="s"/>
+      <x:c r="G50" s="2" t="s"/>
+      <x:c r="H50" s="2" t="s"/>
+      <x:c r="I50" s="2" t="s"/>
+      <x:c r="J50" s="2" t="s"/>
+      <x:c r="K50" s="2" t="s"/>
+      <x:c r="L50" s="2" t="s"/>
+      <x:c r="M50" s="2" t="s"/>
+      <x:c r="N50" s="2" t="s"/>
+      <x:c r="O50" s="2" t="s"/>
+      <x:c r="P50" s="2" t="s"/>
+      <x:c r="Q50" s="2" t="s"/>
+      <x:c r="R50" s="2" t="s"/>
+      <x:c r="S50" s="2" t="s"/>
+      <x:c r="T50" s="2" t="s"/>
+    </x:row>
+    <x:row r="51" spans="1:20">
+      <x:c r="A51" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B51" s="2" t="s">
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="C51" s="2" t="s">
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="D51" s="2" t="s">
+        <x:v>153</x:v>
+      </x:c>
+      <x:c r="E51" s="3">
+        <x:v>45933.3515502662</x:v>
+      </x:c>
+      <x:c r="F51" s="2" t="s"/>
+      <x:c r="G51" s="2" t="s"/>
+      <x:c r="H51" s="2" t="s"/>
+      <x:c r="I51" s="2" t="s"/>
+      <x:c r="J51" s="2" t="s"/>
+      <x:c r="K51" s="2" t="s"/>
+      <x:c r="L51" s="2" t="s"/>
+      <x:c r="M51" s="2" t="s"/>
+      <x:c r="N51" s="2" t="s"/>
+      <x:c r="O51" s="2" t="s"/>
+      <x:c r="P51" s="2" t="s"/>
+      <x:c r="Q51" s="2" t="s"/>
+      <x:c r="R51" s="2" t="s"/>
+      <x:c r="S51" s="2" t="s"/>
+      <x:c r="T51" s="2" t="s"/>
+    </x:row>
+    <x:row r="52" spans="1:20">
+      <x:c r="A52" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B52" s="2" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="C52" s="2" t="s">
+        <x:v>155</x:v>
+      </x:c>
+      <x:c r="D52" s="2" t="s">
+        <x:v>156</x:v>
+      </x:c>
+      <x:c r="E52" s="3">
+        <x:v>45933.3503898495</x:v>
+      </x:c>
+      <x:c r="F52" s="2" t="s"/>
+      <x:c r="G52" s="2" t="s"/>
+      <x:c r="H52" s="2" t="s"/>
+      <x:c r="I52" s="2" t="s"/>
+      <x:c r="J52" s="2" t="s"/>
+      <x:c r="K52" s="2" t="s"/>
+      <x:c r="L52" s="2" t="s"/>
+      <x:c r="M52" s="2" t="s"/>
+      <x:c r="N52" s="2" t="s"/>
+      <x:c r="O52" s="2" t="s"/>
+      <x:c r="P52" s="2" t="s"/>
+      <x:c r="Q52" s="2" t="s"/>
+      <x:c r="R52" s="2" t="s"/>
+      <x:c r="S52" s="2" t="s"/>
+      <x:c r="T52" s="2" t="s"/>
+    </x:row>
+    <x:row r="53" spans="1:20">
+      <x:c r="A53" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B53" s="2" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="C53" s="2" t="s">
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="D53" s="2" t="s">
+        <x:v>159</x:v>
+      </x:c>
+      <x:c r="E53" s="3">
+        <x:v>45906.4148245023</x:v>
+      </x:c>
+      <x:c r="F53" s="2" t="s"/>
+      <x:c r="G53" s="2" t="s"/>
+      <x:c r="H53" s="2" t="s"/>
+      <x:c r="I53" s="2" t="s"/>
+      <x:c r="J53" s="2" t="s"/>
+      <x:c r="K53" s="2" t="s"/>
+      <x:c r="L53" s="2" t="s"/>
+      <x:c r="M53" s="2" t="s"/>
+      <x:c r="N53" s="2" t="s"/>
+      <x:c r="O53" s="2" t="s"/>
+      <x:c r="P53" s="2" t="s"/>
+      <x:c r="Q53" s="2" t="s"/>
+      <x:c r="R53" s="2" t="s"/>
+      <x:c r="S53" s="2" t="s"/>
+      <x:c r="T53" s="2" t="s"/>
+    </x:row>
+    <x:row r="54" spans="1:20">
+      <x:c r="A54" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B54" s="2" t="s">
+        <x:v>160</x:v>
+      </x:c>
+      <x:c r="C54" s="2" t="s">
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="D54" s="2" t="s">
+        <x:v>162</x:v>
+      </x:c>
+      <x:c r="E54" s="3">
+        <x:v>45933.3479508912</x:v>
+      </x:c>
+      <x:c r="F54" s="2" t="s"/>
+      <x:c r="G54" s="2" t="s"/>
+      <x:c r="H54" s="2" t="s"/>
+      <x:c r="I54" s="2" t="s"/>
+      <x:c r="J54" s="2" t="s"/>
+      <x:c r="K54" s="2" t="s"/>
+      <x:c r="L54" s="2" t="s"/>
+      <x:c r="M54" s="2" t="s"/>
+      <x:c r="N54" s="2" t="s"/>
+      <x:c r="O54" s="2" t="s"/>
+      <x:c r="P54" s="2" t="s"/>
+      <x:c r="Q54" s="2" t="s"/>
+      <x:c r="R54" s="2" t="s"/>
+      <x:c r="S54" s="2" t="s"/>
+      <x:c r="T54" s="2" t="s"/>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter differentOddEven="0" differentFirst="0" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Graduation Project-1 (MEES481) Location : ----- Time : Tuesday(9:10)</x:oddHeader>
+    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Graduation Project-1 (MEES481) Location : ----- Time : Tuesday(18:19)</x:oddHeader>
     <x:oddFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:oddFooter>
-    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Graduation Project-1 (MEES481) Location : ----- Time : Tuesday(9:10)</x:evenHeader>
+    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Graduation Project-1 (MEES481) Location : ----- Time : Tuesday(18:19)</x:evenHeader>
     <x:evenFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:evenFooter>
-    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Graduation Project-1 (MEES481) Location : ----- Time : Tuesday(9:10)</x:firstHeader>
+    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Graduation Project-1 (MEES481) Location : ----- Time : Tuesday(18:19)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
+  <x:rowBreaks count="1" manualBreakCount="1">
+    <x:brk id="35" max="1048576" man="1"/>
+  </x:rowBreaks>
   <x:tableParts count="1">
     <x:tablePart r:id="rId5"/>
   </x:tableParts>

--- a/downloaded_files/MEES481_Lecture-35710.xlsx
+++ b/downloaded_files/MEES481_Lecture-35710.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="163">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="166">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -94,6 +94,15 @@
   </x:si>
   <x:si>
     <x:t>Ahmed Mostafa Elsayed Ahmed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210046</x:t>
+  </x:si>
+  <x:si>
+    <x:t>امير ميشيل فاروق مسعد بولس</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Amir Michel Farouk Mosaad</x:t>
   </x:si>
   <x:si>
     <x:t>1210348</x:t>
@@ -620,7 +629,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E54" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E55" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -920,7 +929,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T54"/>
+  <x:dimension ref="A1:T55"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1235,7 +1244,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45933.3442098727</x:v>
+        <x:v>45941.341765081</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1267,7 +1276,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45933.349965625</x:v>
+        <x:v>45933.3442098727</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1299,7 +1308,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45933.3636395486</x:v>
+        <x:v>45933.349965625</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1331,7 +1340,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45933.351334838</x:v>
+        <x:v>45933.3636395486</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1359,9 +1368,11 @@
       <x:c r="C13" s="2" t="s">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="D13" s="2" t="s"/>
+      <x:c r="D13" s="2" t="s">
+        <x:v>40</x:v>
+      </x:c>
       <x:c r="E13" s="3">
-        <x:v>45933.3671975347</x:v>
+        <x:v>45933.351334838</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1384,16 +1395,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B14" s="2" t="s">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="C14" s="2" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="D14" s="2" t="s">
         <x:v>42</x:v>
       </x:c>
+      <x:c r="D14" s="2" t="s"/>
       <x:c r="E14" s="3">
-        <x:v>45906.6646397338</x:v>
+        <x:v>45933.3671975347</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1425,7 +1434,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.6648852199</x:v>
+        <x:v>45906.6646397338</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1457,7 +1466,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45927.4163445255</x:v>
+        <x:v>45906.6648852199</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1489,7 +1498,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.6651360764</x:v>
+        <x:v>45927.4163445255</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1521,7 +1530,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.6646386574</x:v>
+        <x:v>45906.6651360764</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1553,7 +1562,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.6650502315</x:v>
+        <x:v>45906.6646386574</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1585,7 +1594,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45933.3523751157</x:v>
+        <x:v>45906.6650502315</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1617,7 +1626,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45933.352156169</x:v>
+        <x:v>45933.3523751157</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1649,7 +1658,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.4145265046</x:v>
+        <x:v>45933.352156169</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1681,7 +1690,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45933.358359838</x:v>
+        <x:v>45906.4145265046</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1713,7 +1722,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45933.3494470718</x:v>
+        <x:v>45933.358359838</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1745,7 +1754,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.6653118866</x:v>
+        <x:v>45933.3494470718</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1777,7 +1786,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45933.3671975347</x:v>
+        <x:v>45906.6653118866</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1809,7 +1818,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45906.6645260069</x:v>
+        <x:v>45933.3671975347</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1841,7 +1850,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45933.3531239583</x:v>
+        <x:v>45906.6645260069</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1873,7 +1882,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45906.4151256944</x:v>
+        <x:v>45933.3531239583</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1905,7 +1914,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45933.3581216088</x:v>
+        <x:v>45906.4151256944</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1937,7 +1946,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45933.4630226852</x:v>
+        <x:v>45933.3581216088</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1969,7 +1978,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45933.406812037</x:v>
+        <x:v>45933.4630226852</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -2001,7 +2010,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45933.3671975347</x:v>
+        <x:v>45933.406812037</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -2033,7 +2042,7 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45933.3545011574</x:v>
+        <x:v>45933.3671975347</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -2065,7 +2074,7 @@
         <x:v>105</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45933.3571469097</x:v>
+        <x:v>45933.3545011574</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2097,7 +2106,7 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45928.651734838</x:v>
+        <x:v>45933.3571469097</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2129,7 +2138,7 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45933.3448496528</x:v>
+        <x:v>45928.651734838</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2161,7 +2170,7 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45933.3421963773</x:v>
+        <x:v>45933.3448496528</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2193,7 +2202,7 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45933.3519554051</x:v>
+        <x:v>45933.3421963773</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2225,7 +2234,7 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45906.6649344907</x:v>
+        <x:v>45933.3519554051</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2257,7 +2266,7 @@
         <x:v>123</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45933.3492222222</x:v>
+        <x:v>45906.6649344907</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2289,7 +2298,7 @@
         <x:v>126</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45933.3671975347</x:v>
+        <x:v>45933.3492222222</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2321,7 +2330,7 @@
         <x:v>129</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45933.3525686343</x:v>
+        <x:v>45933.3671975347</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2353,7 +2362,7 @@
         <x:v>132</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45933.3671975347</x:v>
+        <x:v>45933.3525686343</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2385,7 +2394,7 @@
         <x:v>135</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45933.3501712153</x:v>
+        <x:v>45933.3671975347</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2417,7 +2426,7 @@
         <x:v>138</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45933.406812037</x:v>
+        <x:v>45933.3501712153</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2449,7 +2458,7 @@
         <x:v>141</x:v>
       </x:c>
       <x:c r="E47" s="3">
-        <x:v>45906.6729691319</x:v>
+        <x:v>45933.406812037</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s"/>
       <x:c r="G47" s="2" t="s"/>
@@ -2481,7 +2490,7 @@
         <x:v>144</x:v>
       </x:c>
       <x:c r="E48" s="3">
-        <x:v>45928.6314503125</x:v>
+        <x:v>45906.6729691319</x:v>
       </x:c>
       <x:c r="F48" s="2" t="s"/>
       <x:c r="G48" s="2" t="s"/>
@@ -2513,7 +2522,7 @@
         <x:v>147</x:v>
       </x:c>
       <x:c r="E49" s="3">
-        <x:v>45933.3586052894</x:v>
+        <x:v>45928.6314503125</x:v>
       </x:c>
       <x:c r="F49" s="2" t="s"/>
       <x:c r="G49" s="2" t="s"/>
@@ -2545,7 +2554,7 @@
         <x:v>150</x:v>
       </x:c>
       <x:c r="E50" s="3">
-        <x:v>45906.6645776968</x:v>
+        <x:v>45933.3586052894</x:v>
       </x:c>
       <x:c r="F50" s="2" t="s"/>
       <x:c r="G50" s="2" t="s"/>
@@ -2577,7 +2586,7 @@
         <x:v>153</x:v>
       </x:c>
       <x:c r="E51" s="3">
-        <x:v>45933.3515502662</x:v>
+        <x:v>45906.6645776968</x:v>
       </x:c>
       <x:c r="F51" s="2" t="s"/>
       <x:c r="G51" s="2" t="s"/>
@@ -2609,7 +2618,7 @@
         <x:v>156</x:v>
       </x:c>
       <x:c r="E52" s="3">
-        <x:v>45933.3503898495</x:v>
+        <x:v>45933.3515502662</x:v>
       </x:c>
       <x:c r="F52" s="2" t="s"/>
       <x:c r="G52" s="2" t="s"/>
@@ -2641,7 +2650,7 @@
         <x:v>159</x:v>
       </x:c>
       <x:c r="E53" s="3">
-        <x:v>45906.4148245023</x:v>
+        <x:v>45933.3503898495</x:v>
       </x:c>
       <x:c r="F53" s="2" t="s"/>
       <x:c r="G53" s="2" t="s"/>
@@ -2673,7 +2682,7 @@
         <x:v>162</x:v>
       </x:c>
       <x:c r="E54" s="3">
-        <x:v>45933.3479508912</x:v>
+        <x:v>45906.4148245023</x:v>
       </x:c>
       <x:c r="F54" s="2" t="s"/>
       <x:c r="G54" s="2" t="s"/>
@@ -2690,6 +2699,38 @@
       <x:c r="R54" s="2" t="s"/>
       <x:c r="S54" s="2" t="s"/>
       <x:c r="T54" s="2" t="s"/>
+    </x:row>
+    <x:row r="55" spans="1:20">
+      <x:c r="A55" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B55" s="2" t="s">
+        <x:v>163</x:v>
+      </x:c>
+      <x:c r="C55" s="2" t="s">
+        <x:v>164</x:v>
+      </x:c>
+      <x:c r="D55" s="2" t="s">
+        <x:v>165</x:v>
+      </x:c>
+      <x:c r="E55" s="3">
+        <x:v>45933.3479508912</x:v>
+      </x:c>
+      <x:c r="F55" s="2" t="s"/>
+      <x:c r="G55" s="2" t="s"/>
+      <x:c r="H55" s="2" t="s"/>
+      <x:c r="I55" s="2" t="s"/>
+      <x:c r="J55" s="2" t="s"/>
+      <x:c r="K55" s="2" t="s"/>
+      <x:c r="L55" s="2" t="s"/>
+      <x:c r="M55" s="2" t="s"/>
+      <x:c r="N55" s="2" t="s"/>
+      <x:c r="O55" s="2" t="s"/>
+      <x:c r="P55" s="2" t="s"/>
+      <x:c r="Q55" s="2" t="s"/>
+      <x:c r="R55" s="2" t="s"/>
+      <x:c r="S55" s="2" t="s"/>
+      <x:c r="T55" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
